--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.030521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.030521.xlsx_with_dialog_acts.xlsx
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1182,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1644,12 +1644,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4194,12 +4194,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7332,12 +7332,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8171,12 +8171,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8285,12 +8285,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8323,12 +8323,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9491,12 +9491,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9533,12 +9533,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9828,12 +9828,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10102,12 +10102,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10605,12 +10605,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10719,12 +10719,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10838,12 +10838,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11766,12 +11766,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12254,12 +12254,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12292,12 +12292,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13269,12 +13269,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13477,12 +13477,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14400,12 +14400,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14636,12 +14636,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15760,12 +15760,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15912,12 +15912,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16153,12 +16153,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16489,12 +16489,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17283,12 +17283,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17363,12 +17363,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17667,12 +17667,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17705,12 +17705,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17866,12 +17866,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18267,12 +18267,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19409,12 +19409,12 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19451,12 +19451,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19493,12 +19493,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20123,12 +20123,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20452,12 +20452,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20932,12 +20932,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21236,12 +21236,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21915,12 +21915,12 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21953,12 +21953,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22392,12 +22392,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22812,12 +22812,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22896,12 +22896,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23586,12 +23586,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23624,12 +23624,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23856,12 +23856,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
